--- a/Durchläufe/NRI/Doppelte NRI/Nachbearbeitung_23_03_02_20_24.xlsx
+++ b/Durchläufe/NRI/Doppelte NRI/Nachbearbeitung_23_03_02_20_24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\NRI\Doppelte NRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82709387-2D8B-40F9-B5C0-9CDB9E556BD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538672A6-3D77-4219-B98E-C4936CDE19CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5310" yWindow="570" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -7606,8 +7606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9011AC53-1FF3-46F4-B03E-0D8F1A897B1F}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection sqref="A1:B35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7617,167 +7617,167 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B2" s="2">
-        <v>3.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2">
-        <v>28</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="B4" s="2">
-        <v>0.43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2">
-        <v>0.7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B6" s="2">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="3">
-        <v>4.0000000000000002E-9</v>
+        <v>45</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B8" s="2">
-        <v>20</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="B9" s="2">
-        <v>3</v>
+        <v>0.02</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="B10" s="2">
-        <v>20</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="B11" s="3">
+        <v>4.0000000000000002E-9</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B12" s="2">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2">
-        <v>20</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2">
-        <v>0.75</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B15" s="2">
-        <v>2</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="B16" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="B18" s="2">
-        <v>20</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B19" s="2">
-        <v>3200000000</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B20" s="2">
-        <v>0.1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B21" s="2">
         <v>2</v>
@@ -7785,47 +7785,47 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B22" s="2">
-        <v>7.0000000000000007E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B23" s="2">
-        <v>1000</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
-      </c>
-      <c r="B24" s="2">
-        <v>10</v>
+        <v>49</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2000000000000</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B25" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="B26" s="2">
-        <v>230</v>
+        <v>3200000000</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2">
         <v>0.1</v>
@@ -7833,69 +7833,72 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B28" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B29" s="2">
-        <v>0.02</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" s="4">
-        <v>1E-3</v>
+        <v>27</v>
+      </c>
+      <c r="B30" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B31" s="2">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>49</v>
-      </c>
-      <c r="B34" s="5">
-        <v>2000000000000</v>
+        <v>41</v>
+      </c>
+      <c r="B34" s="2">
+        <v>230</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="B35" s="2">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B35">
+    <sortCondition ref="A1:A35"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -7904,8 +7907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE2E520-FB4E-4767-8374-544DD063C850}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7923,10 +7926,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7934,10 +7937,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C3">
-        <v>3.8</v>
+        <v>15.243058</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7945,10 +7948,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>1351.2003279999999</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7956,10 +7959,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>0.43</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7967,10 +7970,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C6">
-        <v>0.7</v>
+        <v>0.76870899999999998</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -7978,10 +7981,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -7989,10 +7992,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C8">
-        <v>4.0000000000000002E-9</v>
+        <v>9.4399999999999996E-4</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -8000,10 +8003,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C9">
-        <v>38.235697999999999</v>
+        <v>0.43</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -8011,10 +8014,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2.0667999999999999E-2</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -8022,10 +8025,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="C11">
-        <v>33.839669000000001</v>
+        <v>0.61163000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -8033,10 +8036,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>9.4530290000000008</v>
+        <v>4.0000000000000002E-9</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -8044,10 +8047,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C13">
-        <v>30</v>
+        <v>38.235697999999999</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -8055,10 +8058,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>13.383053</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -8066,10 +8069,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C15">
-        <v>1.02155</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -8077,10 +8080,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>0.110166</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -8088,10 +8091,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="C17">
-        <v>1</v>
+        <v>11.064211</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -8099,10 +8102,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>15.243058</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -8110,10 +8113,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="C19">
-        <v>20</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -8121,10 +8124,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C20">
-        <v>4216786256.0990801</v>
+        <v>1.02155</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -8132,10 +8135,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>0.10405399999999999</v>
+        <v>33.839669000000001</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -8143,7 +8146,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -8154,10 +8157,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C23">
-        <v>6.0449999999999997E-2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -8165,10 +8168,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>1351.2003279999999</v>
+        <v>9.4530290000000008</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -8176,10 +8179,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="C25">
-        <v>0.53312400000000004</v>
+        <v>1302349419820.4109</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -8187,10 +8190,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>0.61163000000000001</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -8198,10 +8201,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C27">
-        <v>233.69202799999999</v>
+        <v>4216786256.0990801</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -8209,10 +8212,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C28">
-        <v>0.110166</v>
+        <v>0.10405399999999999</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -8220,10 +8223,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C29">
-        <v>11.064211</v>
+        <v>1.534367</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -8231,10 +8234,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C30">
-        <v>2.0667999999999999E-2</v>
+        <v>116.383737</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -8242,10 +8245,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C31">
-        <v>9.4399999999999996E-4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -8253,10 +8256,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="C32">
-        <v>0.76870899999999998</v>
+        <v>13.383053</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -8264,10 +8267,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C33">
-        <v>116.383737</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -8275,10 +8278,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C34">
-        <v>1.534367</v>
+        <v>6.0449999999999997E-2</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -8286,10 +8289,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C35">
-        <v>1302349419820.4109</v>
+        <v>233.69202799999999</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -8297,13 +8300,16 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C36">
-        <v>1</v>
+        <v>0.53312400000000004</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:C36">
+    <sortCondition ref="B2:B36"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8312,8 +8318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2558A1-7CCA-4408-B812-5A9F3CB1D254}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Durchläufe/NRI/Doppelte NRI/Nachbearbeitung_23_03_02_20_24.xlsx
+++ b/Durchläufe/NRI/Doppelte NRI/Nachbearbeitung_23_03_02_20_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\NRI\Doppelte NRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{538672A6-3D77-4219-B98E-C4936CDE19CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF120BCF-6399-43B2-AEAC-1FCC125CDA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5310" yWindow="570" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -7606,7 +7606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9011AC53-1FF3-46F4-B03E-0D8F1A897B1F}">
   <dimension ref="A1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B35"/>
     </sheetView>
   </sheetViews>
@@ -7907,8 +7907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE2E520-FB4E-4767-8374-544DD063C850}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8319,7 +8319,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Durchläufe/NRI/Doppelte NRI/Nachbearbeitung_23_03_02_20_24.xlsx
+++ b/Durchläufe/NRI/Doppelte NRI/Nachbearbeitung_23_03_02_20_24.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tim Schell\Documents\GitHub\Limits-to-Growth-Masterprojekt-TH-Koeln-2022\Durchläufe\NRI\Doppelte NRI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF120BCF-6399-43B2-AEAC-1FCC125CDA7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00637FB2-B947-4E55-BC1C-25AEF9D48EFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="15600" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Settings" sheetId="1" r:id="rId1"/>
@@ -1648,16 +1648,16 @@
                   <c:v>0.3512003279999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23129100000000002</c:v>
+                  <c:v>-0.23129100000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.6000000000000057E-2</c:v>
+                  <c:v>-5.6000000000000057E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.3399999999999923E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69418500000000005</c:v>
+                  <c:v>-0.69418500000000005</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.91178490000000001</c:v>
@@ -1675,10 +1675,10 @@
                   <c:v>0.69198345000000006</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.21224758333333327</c:v>
+                  <c:v>-0.21224758333333327</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.34882529008979457</c:v>
+                  <c:v>-0.34882529008979457</c:v>
                 </c:pt>
                 <c:pt idx="13">
                   <c:v>0.3177457050309625</c:v>
@@ -1693,16 +1693,16 @@
                   <c:v>4.8191868499999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.33084734999999998</c:v>
+                  <c:v>-0.33084734999999998</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.13642857142857157</c:v>
+                  <c:v>-0.13642857142857157</c:v>
                 </c:pt>
                 <c:pt idx="19">
                   <c:v>1.6052295652173885E-2</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.94668759999999996</c:v>
+                  <c:v>-0.94668759999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7907,7 +7907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEE2E520-FB4E-4767-8374-544DD063C850}">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
@@ -8318,8 +8318,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD2558A1-7CCA-4408-B812-5A9F3CB1D254}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8371,7 +8371,7 @@
         <v>2</v>
       </c>
       <c r="E2">
-        <f>ABS(C2-D2)/D2</f>
+        <f>(C2-D2)/D2</f>
         <v>6.6215289999999998</v>
       </c>
       <c r="G2" t="s">
@@ -8396,7 +8396,7 @@
         <v>1000</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E22" si="0">ABS(C3-D3)/D3</f>
+        <f t="shared" ref="E3:E22" si="0">(C3-D3)/D3</f>
         <v>0.3512003279999999</v>
       </c>
       <c r="G3" t="s">
@@ -8422,7 +8422,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>0.23129100000000002</v>
+        <v>-0.23129100000000002</v>
       </c>
       <c r="G4" t="s">
         <v>17</v>
@@ -8447,7 +8447,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>5.6000000000000057E-2</v>
+        <v>-5.6000000000000057E-2</v>
       </c>
       <c r="G5" t="s">
         <v>19</v>
@@ -8497,7 +8497,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
-        <v>0.69418500000000005</v>
+        <v>-0.69418500000000005</v>
       </c>
       <c r="G7" t="s">
         <v>16</v>
@@ -8647,7 +8647,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
-        <v>0.21224758333333327</v>
+        <v>-0.21224758333333327</v>
       </c>
       <c r="G13" t="s">
         <v>50</v>
@@ -8672,7 +8672,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
-        <v>0.34882529008979457</v>
+        <v>-0.34882529008979457</v>
       </c>
       <c r="G14" t="s">
         <v>27</v>
@@ -8779,7 +8779,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="0"/>
-        <v>0.33084734999999998</v>
+        <v>-0.33084734999999998</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8798,7 +8798,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="0"/>
-        <v>0.13642857142857157</v>
+        <v>-0.13642857142857157</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -8836,7 +8836,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="0"/>
-        <v>0.94668759999999996</v>
+        <v>-0.94668759999999996</v>
       </c>
     </row>
   </sheetData>
